--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SeleniumTestNG_Parallel\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB3FC45-FAA7-46E0-AC42-A51E65B8CB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A02B75F-4DCE-40DD-90B4-EB9240047275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3354A436-17E3-47D8-8548-6A8A1BAAD720}"/>
   </bookViews>
@@ -24,12 +24,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role </t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>admin@example.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -53,13 +82,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,12 +404,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9855548-650E-431D-8B2D-53FEA4BA5E64}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B2BA2D34-84B5-4F4D-BB61-88373DB43279}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>